--- a/other documentation/report_rezultatov.xlsx
+++ b/other documentation/report_rezultatov.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/r.grilj/Documents/GitHub/BMA_roma_MAG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/r.grilj/Documents/GitHub/BMA_roma_MAG/other documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CD92122-D0D2-0743-8B52-0935196A8422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA84A2C-A581-4C40-AE3B-EDE2925AD9D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6860" yWindow="3600" windowWidth="34560" windowHeight="20360" xr2:uid="{7C5033A3-0CD7-46B1-9957-C1698C274436}"/>
+    <workbookView xWindow="-2760" yWindow="760" windowWidth="34560" windowHeight="20360" xr2:uid="{7C5033A3-0CD7-46B1-9957-C1698C274436}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -51,9 +51,6 @@
     <t>Transformers</t>
   </si>
   <si>
-    <t>Google Cloud</t>
-  </si>
-  <si>
     <t>Named Entity Recognition</t>
   </si>
   <si>
@@ -61,9 +58,6 @@
   </si>
   <si>
     <t>F1</t>
-  </si>
-  <si>
-    <t>Recall</t>
   </si>
   <si>
     <t>ROUGE-1</t>
@@ -75,19 +69,25 @@
     <t>Accuracy</t>
   </si>
   <si>
-    <t>AWS</t>
-  </si>
-  <si>
-    <t>Azure</t>
-  </si>
-  <si>
-    <t>Precision</t>
-  </si>
-  <si>
     <t>Key Phrases</t>
   </si>
   <si>
     <t>Object detection dataseti imajo manjše slike/resolucijo</t>
+  </si>
+  <si>
+    <t>Precision/Natancnost</t>
+  </si>
+  <si>
+    <t>Recall/Odzivnost</t>
+  </si>
+  <si>
+    <t>Google Vertex AI</t>
+  </si>
+  <si>
+    <t>AWS Amazon SageMaker</t>
+  </si>
+  <si>
+    <t>Azure Cognitive Services</t>
   </si>
 </sst>
 </file>
@@ -484,26 +484,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -515,18 +510,12 @@
     <xf numFmtId="164" fontId="2" fillId="2" borderId="22" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="24" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -539,8 +528,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -563,9 +550,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="21" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="22" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
@@ -593,6 +577,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="21" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="22" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="17" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -652,7 +655,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>ROUGE-L rezultat</a:t>
+              <a:t>ROUGE-L</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -806,13 +809,13 @@
                   <c:v>Transformers</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Google Cloud</c:v>
+                  <c:v>Google Vertex AI</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>AWS</c:v>
+                  <c:v>AWS Amazon SageMaker</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Azure</c:v>
+                  <c:v>Azure Cognitive Services</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1566,16 +1569,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>330200</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1270000</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1903,89 +1906,91 @@
   <dimension ref="C2:O24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" customWidth="1"/>
+    <col min="8" max="8" width="20.1640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:15" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="3:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="50" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>14</v>
+      <c r="F3" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C4" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="17">
-        <v>0.94899999999999995</v>
-      </c>
-      <c r="F4" s="11">
+      <c r="C4" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="12">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="F4" s="8">
         <v>0.92</v>
       </c>
       <c r="G4" s="44">
         <v>0.95369999999999999</v>
       </c>
-      <c r="H4" s="15">
+      <c r="H4" s="45">
         <v>0.85780000000000001</v>
       </c>
     </row>
     <row r="5" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C5" s="55"/>
-      <c r="D5" s="49" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="17">
-        <v>0.95299999999999996</v>
-      </c>
-      <c r="F5" s="13">
+      <c r="C5" s="39"/>
+      <c r="D5" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="12">
         <v>0.91900000000000004</v>
       </c>
-      <c r="G5" s="45">
+      <c r="F5" s="10">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="G5" s="46">
         <v>0.96140000000000003</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5" s="47">
         <v>0.82379999999999998</v>
       </c>
     </row>
     <row r="6" spans="3:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C6" s="56"/>
-      <c r="D6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="19">
+      <c r="C6" s="40"/>
+      <c r="D6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="14">
         <f>(2*E4*E5)/(E4+E5)</f>
-        <v>0.95099579390115663</v>
-      </c>
-      <c r="F6" s="51">
+        <v>0.92099565689467977</v>
+      </c>
+      <c r="F6" s="35">
         <f>(2*F4*F5)/(F4+F5)</f>
         <v>0.9194997281131051</v>
       </c>
-      <c r="G6" s="46">
+      <c r="G6" s="48">
         <f>(2*G4*G5)/(G4+G5)</f>
         <v>0.95753452039058018</v>
       </c>
-      <c r="H6" s="24">
+      <c r="H6" s="49">
         <f>(2*H4*H5)/(H4+H5)</f>
         <v>0.84045627973358705</v>
       </c>
@@ -1994,241 +1999,240 @@
       </c>
     </row>
     <row r="7" spans="3:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C7" s="57" t="s">
+      <c r="C7" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="52">
-        <v>0.8</v>
-      </c>
-      <c r="F7" s="47">
+      <c r="D7" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="36">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="F7" s="31">
         <v>0.92400000000000004</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="50">
         <v>0.86219999999999997</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H7" s="45">
         <v>0.86229999999999996</v>
       </c>
     </row>
     <row r="8" spans="3:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="58"/>
-      <c r="D8" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="31">
-        <v>0.79900000000000004</v>
-      </c>
-      <c r="F8" s="12">
+      <c r="C8" s="42"/>
+      <c r="D8" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="20">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="F8" s="9">
         <v>0.92400000000000004</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="51">
         <v>0.89119999999999999</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8" s="47">
         <v>0.89129999999999998</v>
       </c>
-      <c r="L8" s="6"/>
-      <c r="M8" s="50"/>
-      <c r="N8" s="9"/>
-      <c r="O8" s="5"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="3"/>
     </row>
     <row r="9" spans="3:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C9" s="59"/>
-      <c r="D9" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="32">
-        <f>(2*E7*E8)/(E7+E8)</f>
-        <v>0.79949968730456533</v>
-      </c>
-      <c r="F9" s="36">
+      <c r="C9" s="43"/>
+      <c r="D9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="20">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="F9" s="23">
         <f t="shared" ref="F9:G9" si="0">(2*F7*F8)/(F7+F8)</f>
         <v>0.92400000000000004</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G9" s="13">
         <f t="shared" si="0"/>
         <v>0.87646018022128425</v>
       </c>
-      <c r="H9" s="18">
+      <c r="H9" s="13">
         <f>(2*H7*H8)/(H7+H8)</f>
         <v>0.87656020757299269</v>
       </c>
     </row>
     <row r="10" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C10" s="57" t="s">
+      <c r="C10" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="42">
+      <c r="D10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="29">
         <v>0.20899999999999999</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10" s="15">
         <v>0.42948999999999998</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G10" s="45">
         <v>0.22600000000000001</v>
       </c>
-      <c r="H10" s="15">
+      <c r="H10" s="45">
         <v>0.42620999999999998</v>
       </c>
     </row>
     <row r="11" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C11" s="58"/>
-      <c r="D11" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="43">
+      <c r="C11" s="42"/>
+      <c r="D11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="30">
         <v>0.19</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F11" s="16">
         <v>0.20815</v>
       </c>
-      <c r="G11" s="22">
+      <c r="G11" s="52">
         <v>2.1000000000000001E-2</v>
       </c>
-      <c r="H11" s="17">
+      <c r="H11" s="47">
         <v>0.21983</v>
       </c>
     </row>
     <row r="12" spans="3:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C12" s="59"/>
-      <c r="D12" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="33">
+      <c r="C12" s="43"/>
+      <c r="D12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="22">
         <v>0.1918</v>
       </c>
-      <c r="F12" s="23">
+      <c r="F12" s="17">
         <v>0.30619000000000002</v>
       </c>
-      <c r="G12" s="24">
+      <c r="G12" s="49">
         <v>0.20100000000000001</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H12" s="53">
         <v>0.33034000000000002</v>
       </c>
     </row>
     <row r="13" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C13" s="57" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="30">
+      <c r="C13" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="19">
         <v>0.47470000000000001</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="11">
         <v>0.63700000000000001</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="54">
         <v>0.51300000000000001</v>
       </c>
-      <c r="H13" s="34">
+      <c r="H13" s="55">
         <v>0.53</v>
       </c>
     </row>
     <row r="14" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C14" s="58"/>
-      <c r="D14" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="31">
+      <c r="C14" s="42"/>
+      <c r="D14" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="20">
         <v>0.57250000000000001</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F14" s="12">
         <v>0.54300000000000004</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="56">
         <v>0.622</v>
       </c>
-      <c r="H14" s="35">
+      <c r="H14" s="57">
         <v>0.67</v>
       </c>
     </row>
     <row r="15" spans="3:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="59"/>
-      <c r="D15" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="32">
+      <c r="C15" s="43"/>
+      <c r="D15" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="21">
         <f>(2*E13*E14)/(E13+E14)</f>
         <v>0.51903313598166534</v>
       </c>
-      <c r="F15" s="37">
-        <f t="shared" ref="F15:H15" si="1">(2*F13*F14)/(F13+F14)</f>
+      <c r="F15" s="24">
+        <f t="shared" ref="F15:G15" si="1">(2*F13*F14)/(F13+F14)</f>
         <v>0.58625593220338978</v>
       </c>
-      <c r="G15" s="33">
+      <c r="G15" s="22">
         <f t="shared" si="1"/>
         <v>0.56226607929515415</v>
       </c>
-      <c r="H15" s="36">
+      <c r="H15" s="23">
         <f>(2*H13*H14)/(H13+H14)</f>
         <v>0.59183333333333332</v>
       </c>
     </row>
     <row r="16" spans="3:15" x14ac:dyDescent="0.2">
-      <c r="C16" s="57" t="s">
+      <c r="C16" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="39">
+      <c r="D16" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="26">
         <v>0.92949999999999999</v>
       </c>
-      <c r="F16" s="15">
+      <c r="F16" s="11">
         <v>0.95699999999999996</v>
       </c>
-      <c r="G16" s="25">
+      <c r="G16" s="58">
         <v>0.85760000000000003</v>
       </c>
-      <c r="H16" s="15">
+      <c r="H16" s="45">
         <v>0.88</v>
       </c>
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="C17" s="58"/>
-      <c r="D17" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="40">
+      <c r="C17" s="42"/>
+      <c r="D17" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="27">
         <v>0.92600000000000005</v>
       </c>
-      <c r="F17" s="17">
+      <c r="F17" s="12">
         <v>0.86199999999999999</v>
       </c>
-      <c r="G17" s="26">
+      <c r="G17" s="59">
         <v>0.76290000000000002</v>
       </c>
-      <c r="H17" s="17">
+      <c r="H17" s="47">
         <v>0.92</v>
       </c>
     </row>
     <row r="18" spans="3:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="59"/>
-      <c r="D18" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="41">
+      <c r="C18" s="43"/>
+      <c r="D18" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="28">
         <f>(2*E16*E17)/(E16+E17)</f>
         <v>0.92774669900296414</v>
       </c>
-      <c r="F18" s="19">
+      <c r="F18" s="14">
         <f t="shared" ref="F18:H18" si="2">(2*F16*F17)/(F16+F17)</f>
         <v>0.90701924134139633</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G18" s="60">
         <f t="shared" si="2"/>
         <v>0.80748292502314101</v>
       </c>
-      <c r="H18" s="24">
+      <c r="H18" s="49">
         <f t="shared" si="2"/>
         <v>0.89955555555555555</v>
       </c>
@@ -2237,34 +2241,34 @@
       <c r="C19" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="27">
-        <v>0.96799999999999997</v>
-      </c>
-      <c r="F19" s="38">
+      <c r="D19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="18">
+        <v>0.94</v>
+      </c>
+      <c r="F19" s="25">
         <v>0.97699999999999998</v>
       </c>
-      <c r="G19" s="28">
+      <c r="G19" s="61">
         <v>0.98</v>
       </c>
-      <c r="H19" s="29">
+      <c r="H19" s="62">
         <v>0.96479999999999999</v>
       </c>
     </row>
     <row r="20" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="D20" s="53"/>
+      <c r="D20" s="37"/>
     </row>
     <row r="21" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="D21" s="53"/>
+      <c r="D21" s="37"/>
     </row>
     <row r="22" spans="3:8" x14ac:dyDescent="0.2">
-      <c r="D22" s="53"/>
+      <c r="D22" s="37"/>
     </row>
     <row r="24" spans="3:8" x14ac:dyDescent="0.2">
       <c r="F24" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/other documentation/report_rezultatov.xlsx
+++ b/other documentation/report_rezultatov.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/r.grilj/Documents/GitHub/BMA_roma_MAG/other documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA84A2C-A581-4C40-AE3B-EDE2925AD9D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF103CEC-8EED-F44E-A949-2EF416300C33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2760" yWindow="760" windowWidth="34560" windowHeight="20360" xr2:uid="{7C5033A3-0CD7-46B1-9957-C1698C274436}"/>
+    <workbookView xWindow="-2800" yWindow="1980" windowWidth="34560" windowHeight="20360" xr2:uid="{7C5033A3-0CD7-46B1-9957-C1698C274436}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -655,7 +655,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>ROUGE-L</a:t>
+              <a:t>F1 ocena</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -822,21 +822,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>List1!$E$12:$H$12</c:f>
+              <c:f>List1!$E$18:$H$18</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.1918</c:v>
+                  <c:v>0.92774669900296414</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.30619000000000002</c:v>
+                  <c:v>0.90701924134139633</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.20100000000000001</c:v>
+                  <c:v>0.80748292502314101</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.33034000000000002</c:v>
+                  <c:v>0.89955555555555555</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1571,12 +1571,12 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1270000</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>660400</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
@@ -1906,7 +1906,7 @@
   <dimension ref="C2:O24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
